--- a/파이썬을 활용한 머신러닝/Day01_미션/result4.xlsx
+++ b/파이썬을 활용한 머신러닝/Day01_미션/result4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,22 +537,22 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>48642</v>
+        <v>30326</v>
       </c>
       <c r="B2" t="n">
-        <v>48644</v>
+        <v>30328</v>
       </c>
       <c r="C2" t="n">
-        <v>66140795</v>
+        <v>66434529</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>렌탈</t>
+          <t>멤버십</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>멤버십3유형</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -562,11 +562,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>99900</v>
+        <v>66900</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -587,34 +587,34 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>계약확정</t>
+          <t>기간만료</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>여자</t>
+          <t>남자</t>
         </is>
       </c>
       <c r="T2" t="n">
@@ -628,13 +628,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45862</v>
+        <v>42440</v>
       </c>
       <c r="B3" t="n">
-        <v>45864</v>
+        <v>42442</v>
       </c>
       <c r="C3" t="n">
-        <v>66439703</v>
+        <v>66792361</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>일반계약</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -653,24 +653,24 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2019-02-22</t>
+          <t>2022-08-09</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>카드이체</t>
+          <t>CMS</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DES-1</t>
+          <t>DES-2</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>99900</v>
+        <v>102900</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -678,16 +678,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>경상도</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -696,11 +696,11 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -709,23 +709,23 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>롯데카드</t>
+          <t>국민은행</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>40193</v>
+        <v>43971</v>
       </c>
       <c r="B4" t="n">
-        <v>40195</v>
+        <v>43973</v>
       </c>
       <c r="C4" t="n">
-        <v>66438426</v>
+        <v>66768055</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>프로모션계약</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2019-03-11</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -757,11 +757,11 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DES-1</t>
+          <t>DES-3A</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>99900</v>
+        <v>96900</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경상도</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>울산광역시</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -787,36 +787,36 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>여자</t>
+          <t>남자</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>우체국</t>
+          <t>농협회원조합</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44807</v>
+        <v>50085</v>
       </c>
       <c r="B5" t="n">
-        <v>44809</v>
+        <v>50087</v>
       </c>
       <c r="C5" t="n">
-        <v>66227272</v>
+        <v>66771238</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -825,17 +825,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>프로모션계약</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>자체홈페이지</t>
+          <t>대형마트A</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2019-06-24</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -848,11 +848,11 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DES-1</t>
+          <t>DES-3A</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>99900</v>
+        <v>90900</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -860,16 +860,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -891,23 +891,23 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>농협중앙회</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>41805</v>
+        <v>47258</v>
       </c>
       <c r="B6" t="n">
-        <v>41807</v>
+        <v>47260</v>
       </c>
       <c r="C6" t="n">
-        <v>25874995</v>
+        <v>66750846</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>프로모션계약</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2019-02-15</t>
+          <t>2022-02-20</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -939,28 +939,28 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DES-1</t>
+          <t>DES-2</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>99900</v>
+        <v>90900</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 사업자</t>
+          <t xml:space="preserve"> 개인</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>경상도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -969,11 +969,11 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -981,22 +981,24 @@
           <t>여자</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>8</v>
+      </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>대구은행</t>
+          <t>우리은행</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45742</v>
+        <v>48714</v>
       </c>
       <c r="B7" t="n">
-        <v>45744</v>
+        <v>48716</v>
       </c>
       <c r="C7" t="n">
-        <v>66252998</v>
+        <v>66797116</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1005,17 +1007,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>패키지계약</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>자체홈페이지</t>
+          <t>대형마트A</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2019-02-20</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1032,24 +1034,22 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>99900</v>
+        <v>104400</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
           <t xml:space="preserve"> 개인</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>42</v>
-      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>경상도</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>경상도</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1058,36 +1058,36 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>남자</t>
+          <t>여자</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>농협회원조합</t>
+          <t>새마을금고</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>51034</v>
+        <v>39681</v>
       </c>
       <c r="B8" t="n">
-        <v>51036</v>
+        <v>39683</v>
       </c>
       <c r="C8" t="n">
-        <v>66171461</v>
+        <v>25733821</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>일반계약</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1106,41 +1106,39 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2019-04-09</t>
+          <t>2023-03-25</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>카드이체</t>
+          <t>CMS</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DES-1</t>
+          <t>MMC</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>99900</v>
+        <v>185700</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 개인</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>57</v>
-      </c>
+          <t xml:space="preserve"> 사업자</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1149,11 +1147,11 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1164,19 +1162,19 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>롯데카드</t>
+          <t>기업은행</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>50531</v>
+        <v>49888</v>
       </c>
       <c r="B9" t="n">
-        <v>50533</v>
+        <v>49890</v>
       </c>
       <c r="C9" t="n">
-        <v>66218479</v>
+        <v>66797116</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1183,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>패키지계약</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1195,7 +1193,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2019-07-15</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1208,28 +1206,26 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DES-1</t>
+          <t>DES-2</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>99900</v>
+        <v>89400</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
           <t xml:space="preserve"> 개인</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>61</v>
-      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경상도</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경상도</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1238,11 +1234,11 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1255,19 +1251,19 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>새마을금고</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>48177</v>
+        <v>44425</v>
       </c>
       <c r="B10" t="n">
-        <v>48179</v>
+        <v>44427</v>
       </c>
       <c r="C10" t="n">
-        <v>25853699</v>
+        <v>66786968</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1276,7 +1272,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>프로모션계약</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1286,11 +1282,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2019-06-12</t>
+          <t>2023-07-31</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1299,28 +1295,28 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DES-1</t>
+          <t>ERA</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>99900</v>
+        <v>120900</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 사업자</t>
+          <t xml:space="preserve"> 개인</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>전라도</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1329,34 +1325,36 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr"/>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>8</v>
+      </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>농협중앙회</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>50287</v>
+        <v>44424</v>
       </c>
       <c r="B11" t="n">
-        <v>50289</v>
+        <v>44426</v>
       </c>
       <c r="C11" t="n">
-        <v>66439389</v>
+        <v>66786968</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1365,7 +1363,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>프로모션계약</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1375,7 +1373,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2019-04-28</t>
+          <t>2023-07-31</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1388,11 +1386,11 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DES-1</t>
+          <t>DES-3A</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>99900</v>
+        <v>108900</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1400,16 +1398,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>경상도</t>
+          <t>전라도</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1418,11 +1416,11 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1431,23 +1429,23 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>농협중앙회</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>43633</v>
+        <v>48365</v>
       </c>
       <c r="B12" t="n">
-        <v>43635</v>
+        <v>48367</v>
       </c>
       <c r="C12" t="n">
-        <v>66319378</v>
+        <v>66786968</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1456,17 +1454,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>프로모션계약</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>자체홈페이지</t>
+          <t>대형마트A</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1479,11 +1477,11 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DES-1</t>
+          <t>DES-3A</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>99900</v>
+        <v>108900</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1491,16 +1489,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>전라도</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1509,36 +1507,36 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>여자</t>
+          <t>남자</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>농협중앙회</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>6467</v>
+        <v>48366</v>
       </c>
       <c r="B13" t="n">
-        <v>6468</v>
+        <v>48368</v>
       </c>
       <c r="C13" t="n">
-        <v>66761898</v>
+        <v>66786968</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1547,17 +1545,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>프로모션계약</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>영업방판</t>
+          <t>대형마트A</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1565,16 +1563,16 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>카드이체</t>
+          <t>CMS</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>DES-1</t>
+          <t>DES-3A</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>99900</v>
+        <v>108900</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1582,16 +1580,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>전라도</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1600,36 +1598,36 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>여자</t>
+          <t>남자</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>롯데카드</t>
+          <t>농협중앙회</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>48857</v>
+        <v>44205</v>
       </c>
       <c r="B14" t="n">
-        <v>48859</v>
+        <v>44207</v>
       </c>
       <c r="C14" t="n">
-        <v>66441762</v>
+        <v>25732653</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1638,7 +1636,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>프로모션계약</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1648,7 +1646,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2022-12-20</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1665,24 +1663,22 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>99900</v>
+        <v>105900</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 개인</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>44</v>
-      </c>
+          <t xml:space="preserve"> 사업자</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>전라도</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>전라도</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1691,11 +1687,11 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1703,24 +1699,22 @@
           <t>여자</t>
         </is>
       </c>
-      <c r="T14" t="n">
-        <v>3</v>
-      </c>
+      <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>농협회원조합</t>
+          <t>기업은행</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>48390</v>
+        <v>49722</v>
       </c>
       <c r="B15" t="n">
-        <v>48392</v>
+        <v>49724</v>
       </c>
       <c r="C15" t="n">
-        <v>66637091</v>
+        <v>66750846</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1729,7 +1723,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>프로모션계약</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1739,11 +1733,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2019-03-03</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1752,11 +1746,11 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>DES-1</t>
+          <t>MMC</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>99900</v>
+        <v>185700</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1764,7 +1758,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1782,11 +1776,11 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1795,23 +1789,23 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>농협중앙회</t>
+          <t>우리은행</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>46482</v>
+        <v>44204</v>
       </c>
       <c r="B16" t="n">
-        <v>46484</v>
+        <v>44206</v>
       </c>
       <c r="C16" t="n">
-        <v>66176384</v>
+        <v>25732653</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1820,7 +1814,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>프로모션계약</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1830,7 +1824,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2019-05-29</t>
+          <t>2022-10-23</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1843,26 +1837,26 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DES-1</t>
+          <t>DES-3A</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>99900</v>
+        <v>108900</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 개인</t>
+          <t xml:space="preserve"> 사업자</t>
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>전라도</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1871,36 +1865,34 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>남자</t>
-        </is>
-      </c>
-      <c r="T16" t="n">
-        <v>1</v>
-      </c>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>기업은행</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44221</v>
+        <v>44203</v>
       </c>
       <c r="B17" t="n">
-        <v>44223</v>
+        <v>44205</v>
       </c>
       <c r="C17" t="n">
-        <v>66659735</v>
+        <v>25732653</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1901,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>일반계약</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1919,11 +1911,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2020-04-29</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1932,28 +1924,26 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>DES-1</t>
+          <t>MMC</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>99900</v>
+        <v>185700</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 개인</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>54</v>
-      </c>
+          <t xml:space="preserve"> 사업자</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1962,11 +1952,11 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -1974,33 +1964,31 @@
           <t>여자</t>
         </is>
       </c>
-      <c r="T17" t="n">
-        <v>2</v>
-      </c>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>농협중앙회</t>
+          <t>기업은행</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45282</v>
+        <v>33578</v>
       </c>
       <c r="B18" t="n">
-        <v>45284</v>
+        <v>33580</v>
       </c>
       <c r="C18" t="n">
-        <v>66439632</v>
+        <v>66435309</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>렌탈</t>
+          <t>멤버십</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>멤버십3유형</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2010,11 +1998,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2019-04-18</t>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2027,7 +2015,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>99900</v>
+        <v>66900</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -2035,29 +2023,29 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>충청도</t>
+          <t>경상도</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>충청도</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>계약확정</t>
+          <t>기간만료</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2066,23 +2054,23 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>부산은행</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>39574</v>
+        <v>49464</v>
       </c>
       <c r="B19" t="n">
-        <v>39576</v>
+        <v>49466</v>
       </c>
       <c r="C19" t="n">
-        <v>66148868</v>
+        <v>66771238</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2091,7 +2079,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>프로모션계약</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2101,24 +2089,24 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2019-02-13</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>카드이체</t>
+          <t>CMS</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>DES-1</t>
+          <t>ERA</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>99900</v>
+        <v>108900</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -2126,7 +2114,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -2135,7 +2123,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2144,11 +2132,11 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2157,32 +2145,32 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>롯데카드</t>
+          <t>농협중앙회</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>39599</v>
+        <v>47225</v>
       </c>
       <c r="B20" t="n">
-        <v>39601</v>
+        <v>47227</v>
       </c>
       <c r="C20" t="n">
-        <v>25866333</v>
+        <v>25853347</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>렌탈</t>
+          <t>멤버십</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>멤버십3유형</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2192,11 +2180,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2019-11-28</t>
+          <t>2022-09-16</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2209,16 +2197,14 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>99900</v>
+        <v>66900</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
           <t xml:space="preserve"> 사업자</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>43</v>
-      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>경기도</t>
@@ -2235,11 +2221,11 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2250,19 +2236,19 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>농협회원조합</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>43383</v>
+        <v>46591</v>
       </c>
       <c r="B21" t="n">
-        <v>43385</v>
+        <v>46593</v>
       </c>
       <c r="C21" t="n">
-        <v>66314755</v>
+        <v>66795310</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2271,7 +2257,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>일반계약</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2281,7 +2267,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2019-07-17</t>
+          <t>2022-09-06</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2298,7 +2284,7 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>99900</v>
+        <v>105900</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -2306,16 +2292,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경상도</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2324,11 +2310,11 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2337,23 +2323,23 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>농협회원조합</t>
+          <t>대구은행</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>50203</v>
+        <v>45479</v>
       </c>
       <c r="B22" t="n">
-        <v>50205</v>
+        <v>45481</v>
       </c>
       <c r="C22" t="n">
-        <v>66171656</v>
+        <v>66771238</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2362,7 +2348,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>교체계약</t>
+          <t>일반계약</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2372,7 +2358,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2020-03-01</t>
+          <t>2023-01-20</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -2389,7 +2375,7 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>99900</v>
+        <v>105900</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -2401,12 +2387,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>경상도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2415,36 +2401,36 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>남자</t>
+          <t>여자</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>부산은행</t>
+          <t>농협중앙회</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>36671</v>
+        <v>50383</v>
       </c>
       <c r="B23" t="n">
-        <v>36673</v>
+        <v>50385</v>
       </c>
       <c r="C23" t="n">
-        <v>25734218</v>
+        <v>66798413</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2453,17 +2439,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>단체계약</t>
+          <t>프로모션계약</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>영업방판</t>
+          <t>대형마트A</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2019-02-09</t>
+          <t>2022-06-24</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -2476,26 +2462,26 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DES-3A</t>
+          <t>DES-1</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>99600</v>
+        <v>105900</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 사업자</t>
+          <t xml:space="preserve"> 개인</t>
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>전라도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2504,11 +2490,11 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2516,22 +2502,24 @@
           <t>여자</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>8</v>
+      </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>농협중앙회</t>
+          <t>농협회원조합</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>32790</v>
+        <v>45478</v>
       </c>
       <c r="B24" t="n">
-        <v>32792</v>
+        <v>45480</v>
       </c>
       <c r="C24" t="n">
-        <v>25734595</v>
+        <v>66771238</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2540,17 +2528,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>단체계약</t>
+          <t>일반계약</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>대형마트C</t>
+          <t>대형마트A</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2019-10-24</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -2558,7 +2546,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>카드이체</t>
+          <t>CMS</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2567,22 +2555,24 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>99600</v>
+        <v>102900</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr"/>
+          <t xml:space="preserve"> 개인</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>49</v>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2591,11 +2581,11 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2603,109 +2593,115 @@
           <t>여자</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>9</v>
+      </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>국민카드</t>
+          <t>농협중앙회</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>32784</v>
+        <v>13249</v>
       </c>
       <c r="B25" t="n">
-        <v>32786</v>
+        <v>13250</v>
       </c>
       <c r="C25" t="n">
-        <v>25734595</v>
+        <v>66428790</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>렌탈</t>
+          <t>멤버십</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>단체계약</t>
+          <t>멤버십3유형</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>대형마트C</t>
+          <t>대형마트A</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2019-08-22</t>
+          <t>2022-02-20</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>카드이체</t>
+          <t>CMS</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DES-2</t>
+          <t>DES-1</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>99600</v>
+        <v>66900</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr"/>
+          <t xml:space="preserve"> 개인</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>56</v>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>전라도</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>전라도</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>계약확정</t>
+          <t>기간만료</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr"/>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>6</v>
+      </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>국민카드</t>
+          <t>국민은행</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>32789</v>
+        <v>46416</v>
       </c>
       <c r="B26" t="n">
-        <v>32791</v>
+        <v>46418</v>
       </c>
       <c r="C26" t="n">
-        <v>25734595</v>
+        <v>66795005</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2714,49 +2710,51 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>단체계약</t>
+          <t>일반계약</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>대형마트C</t>
+          <t>대형마트A</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2020-04-11</t>
+          <t>2023-04-07</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>카드이체</t>
+          <t>CMS</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DES-2</t>
+          <t>DES-1</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>99600</v>
+        <v>96900</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr"/>
+          <t xml:space="preserve"> 개인</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>33</v>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2765,34 +2763,36 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr"/>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>8</v>
+      </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>국민카드</t>
+          <t>농협회원조합</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>32788</v>
+        <v>43838</v>
       </c>
       <c r="B27" t="n">
-        <v>32790</v>
+        <v>43840</v>
       </c>
       <c r="C27" t="n">
-        <v>25734595</v>
+        <v>66790268</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2801,49 +2801,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>단체계약</t>
+          <t>일반계약</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>대형마트C</t>
+          <t>대형마트A</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2022-08-23</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>카드이체</t>
+          <t>CMS</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DES-2</t>
+          <t>DES-1</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>99600</v>
+        <v>96900</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr"/>
+          <t xml:space="preserve"> 개인</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>30</v>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>경상도</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2852,34 +2854,36 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr"/>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>9</v>
+      </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>국민카드</t>
+          <t>우체국</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>36672</v>
+        <v>43837</v>
       </c>
       <c r="B28" t="n">
-        <v>36674</v>
+        <v>43839</v>
       </c>
       <c r="C28" t="n">
-        <v>25734218</v>
+        <v>66790268</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2888,17 +2892,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>단체계약</t>
+          <t>프로모션계약</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>영업방판</t>
+          <t>대형마트A</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2019-04-23</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2915,22 +2919,24 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>99600</v>
+        <v>108900</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr"/>
+          <t xml:space="preserve"> 개인</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>30</v>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>전라도</t>
+          <t>경상도</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2939,34 +2945,36 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr"/>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>9</v>
+      </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>농협중앙회</t>
+          <t>우체국</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>36673</v>
+        <v>39838</v>
       </c>
       <c r="B29" t="n">
-        <v>36675</v>
+        <v>39840</v>
       </c>
       <c r="C29" t="n">
-        <v>25734218</v>
+        <v>66306264</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2975,17 +2983,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>단체계약</t>
+          <t>일반계약</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>영업방판</t>
+          <t>대형마트A</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2019-07-16</t>
+          <t>2022-10-06</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -2998,26 +3006,28 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DES-3A</t>
+          <t>DES-1</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>99600</v>
+        <v>124200</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr"/>
+          <t xml:space="preserve"> 개인</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>53</v>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>전라도</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3026,19 +3036,21 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr"/>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>9</v>
+      </c>
       <c r="U29" t="inlineStr">
         <is>
           <t>농협중앙회</t>
@@ -3047,13 +3059,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>32787</v>
+        <v>41241</v>
       </c>
       <c r="B30" t="n">
-        <v>32789</v>
+        <v>41243</v>
       </c>
       <c r="C30" t="n">
-        <v>25734595</v>
+        <v>25733821</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3062,34 +3074,34 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>단체계약</t>
+          <t>일반계약</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>대형마트C</t>
+          <t>대형마트A</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2022-08-29</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>카드이체</t>
+          <t>CMS</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DES-2</t>
+          <t>MMC</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>99600</v>
+        <v>185700</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -3113,11 +3125,11 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3128,19 +3140,19 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>국민카드</t>
+          <t>기업은행</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>32786</v>
+        <v>48951</v>
       </c>
       <c r="B31" t="n">
-        <v>32788</v>
+        <v>48953</v>
       </c>
       <c r="C31" t="n">
-        <v>25734595</v>
+        <v>66796825</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3149,38 +3161,38 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>단체계약</t>
+          <t>패키지계약</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>대형마트C</t>
+          <t>대형마트A</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2019-02-17</t>
+          <t>2023-02-04</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>카드이체</t>
+          <t>CMS</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DES-2</t>
+          <t>DES-1</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>99600</v>
+        <v>89400</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 사업자</t>
+          <t xml:space="preserve"> 개인</t>
         </is>
       </c>
       <c r="M31" t="inlineStr"/>
@@ -3200,11 +3212,11 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>있음</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3212,1732 +3224,14 @@
           <t>여자</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>8</v>
+      </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>국민카드</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>32785</v>
-      </c>
-      <c r="B32" t="n">
-        <v>32787</v>
-      </c>
-      <c r="C32" t="n">
-        <v>25734595</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>렌탈</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>단체계약</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>대형마트C</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>2019-10-24</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>36</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>카드이체</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>DES-2</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>99600</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>서울특별시</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>서울특별시</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>계약확정</t>
-        </is>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>국민카드</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>32782</v>
-      </c>
-      <c r="B33" t="n">
-        <v>32784</v>
-      </c>
-      <c r="C33" t="n">
-        <v>25734595</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>렌탈</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>단체계약</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>대형마트C</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>2019-07-27</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>36</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>카드이체</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>DES-2</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>99600</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>서울특별시</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>서울특별시</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>계약확정</t>
-        </is>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>국민카드</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>36678</v>
-      </c>
-      <c r="B34" t="n">
-        <v>36680</v>
-      </c>
-      <c r="C34" t="n">
-        <v>25734218</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>렌탈</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>단체계약</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>영업방판</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>60</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>CMS</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>DES-3A</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>99600</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>전라도</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>광주광역시</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>계약확정</t>
-        </is>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
           <t>농협중앙회</t>
         </is>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>32783</v>
-      </c>
-      <c r="B35" t="n">
-        <v>32785</v>
-      </c>
-      <c r="C35" t="n">
-        <v>25734595</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>렌탈</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>단체계약</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>대형마트C</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>2019-10-23</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>36</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>카드이체</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>DES-2</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>99600</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>서울특별시</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>서울특별시</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>계약확정</t>
-        </is>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>국민카드</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>36675</v>
-      </c>
-      <c r="B36" t="n">
-        <v>36677</v>
-      </c>
-      <c r="C36" t="n">
-        <v>25734218</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>렌탈</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>단체계약</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>영업방판</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>2019-07-19</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>60</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>CMS</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>DES-3A</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>99600</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>전라도</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>광주광역시</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>계약확정</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>농협중앙회</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>32781</v>
-      </c>
-      <c r="B37" t="n">
-        <v>32783</v>
-      </c>
-      <c r="C37" t="n">
-        <v>25734595</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>렌탈</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>단체계약</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>대형마트C</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>2019-03-24</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>36</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>카드이체</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>DES-2</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>99600</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>서울특별시</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>서울특별시</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>계약확정</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>국민카드</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36677</v>
-      </c>
-      <c r="B38" t="n">
-        <v>36679</v>
-      </c>
-      <c r="C38" t="n">
-        <v>25734218</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>렌탈</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>단체계약</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>영업방판</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>2019-10-09</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>60</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>CMS</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>DES-3A</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>99600</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>전라도</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>광주광역시</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>계약확정</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>농협중앙회</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>32780</v>
-      </c>
-      <c r="B39" t="n">
-        <v>32782</v>
-      </c>
-      <c r="C39" t="n">
-        <v>25734595</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>렌탈</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>단체계약</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>대형마트C</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>2019-03-24</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>36</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>카드이체</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>DES-2</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>99600</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>서울특별시</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>서울특별시</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>계약확정</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>국민카드</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>36676</v>
-      </c>
-      <c r="B40" t="n">
-        <v>36678</v>
-      </c>
-      <c r="C40" t="n">
-        <v>25734218</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>렌탈</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>단체계약</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>영업방판</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>2019-07-19</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>60</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>CMS</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>DES-3A</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>99600</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>전라도</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>광주광역시</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>계약확정</t>
-        </is>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>농협중앙회</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>36679</v>
-      </c>
-      <c r="B41" t="n">
-        <v>36681</v>
-      </c>
-      <c r="C41" t="n">
-        <v>25734218</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>렌탈</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>단체계약</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>영업방판</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>2020-01-14</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>60</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>CMS</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>DES-3A</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>99600</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>전라도</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>광주광역시</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>계약확정</t>
-        </is>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>농협중앙회</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>32779</v>
-      </c>
-      <c r="B42" t="n">
-        <v>32781</v>
-      </c>
-      <c r="C42" t="n">
-        <v>25734595</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>렌탈</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>단체계약</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>대형마트C</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>2019-02-24</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>36</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>카드이체</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>DES-2</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>99600</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>서울특별시</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>서울특별시</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>계약확정</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>국민카드</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>32778</v>
-      </c>
-      <c r="B43" t="n">
-        <v>32780</v>
-      </c>
-      <c r="C43" t="n">
-        <v>25734595</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>렌탈</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>단체계약</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>대형마트C</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>2019-02-07</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>36</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>카드이체</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>DES-2</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>99600</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>서울특별시</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>서울특별시</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>계약확정</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>국민카드</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>32777</v>
-      </c>
-      <c r="B44" t="n">
-        <v>32779</v>
-      </c>
-      <c r="C44" t="n">
-        <v>25734595</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>렌탈</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>단체계약</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>대형마트C</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>2019-02-03</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>36</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>카드이체</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>DES-2</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>99600</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>서울특별시</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>서울특별시</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>계약확정</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>국민카드</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>36674</v>
-      </c>
-      <c r="B45" t="n">
-        <v>36676</v>
-      </c>
-      <c r="C45" t="n">
-        <v>25734218</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>렌탈</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>단체계약</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>영업방판</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>2019-04-30</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>60</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>CMS</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>DES-3A</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>99600</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>전라도</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>광주광역시</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>계약확정</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>농협중앙회</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>36670</v>
-      </c>
-      <c r="B46" t="n">
-        <v>36672</v>
-      </c>
-      <c r="C46" t="n">
-        <v>25734218</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>렌탈</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>단체계약</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>영업방판</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>2019-02-09</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>60</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>CMS</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>DES-3A</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>99600</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>전라도</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>광주광역시</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>계약확정</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>농협중앙회</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>13889</v>
-      </c>
-      <c r="B47" t="n">
-        <v>13890</v>
-      </c>
-      <c r="C47" t="n">
-        <v>25777820</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>렌탈</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>일반계약</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>직영유통사</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>2020-06-18</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>36</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>가상계좌</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>DES-2</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>98910</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>충청도</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>충청도</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>계약확정</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>1</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>있음</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>30541</v>
-      </c>
-      <c r="B48" t="n">
-        <v>30543</v>
-      </c>
-      <c r="C48" t="n">
-        <v>25777820</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>렌탈</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>일반계약</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>직영유통사</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>2020-05-18</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>36</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>가상계좌</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>DES-2</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>98910</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>경상도</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>부산광역시</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>계약확정</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>1</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>있음</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>13884</v>
-      </c>
-      <c r="B49" t="n">
-        <v>13885</v>
-      </c>
-      <c r="C49" t="n">
-        <v>25777820</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>렌탈</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>일반계약</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>직영유통사</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>2019-01-31</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>36</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>가상계좌</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>DES-2</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>98910</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>충청도</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>충청도</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>계약확정</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>1</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>있음</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>13890</v>
-      </c>
-      <c r="B50" t="n">
-        <v>13891</v>
-      </c>
-      <c r="C50" t="n">
-        <v>25777820</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>렌탈</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>일반계약</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>직영유통사</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>2019-08-12</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>36</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>가상계좌</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>DES-2</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>98910</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>충청도</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>충청도</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>계약확정</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>1</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>있음</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>30542</v>
-      </c>
-      <c r="B51" t="n">
-        <v>30544</v>
-      </c>
-      <c r="C51" t="n">
-        <v>25777820</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>렌탈</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>일반계약</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>직영유통사</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>2019-02-01</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>36</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>가상계좌</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>DES-2</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>98910</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 사업자</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>경상도</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>부산광역시</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>계약확정</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>1</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>있음</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
